--- a/PCB/protues/新建文件夹/新建 Microsoft Excel 工作表.xlsx
+++ b/PCB/protues/新建文件夹/新建 Microsoft Excel 工作表.xlsx
@@ -11,8 +11,21 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>高度方向需要缩小至原来的0.9082倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因打印长度方向拉长，需要调整：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -75,23 +91,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>114301</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>462375</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>9388</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -402,43 +418,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="BMP 图像" shapeId="1025" r:id="rId4">
+        <oleObject progId="BMP 图像" shapeId="1028" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="BMP 图像" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="BMP 图像" shapeId="1028" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/PCB/protues/新建文件夹/新建 Microsoft Excel 工作表.xlsx
+++ b/PCB/protues/新建文件夹/新建 Microsoft Excel 工作表.xlsx
@@ -11,18 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>高度方向需要缩小至原来的0.9082倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因打印长度方向拉长，需要调整：</t>
+    <t>因打印长度方向拉长，需要调整：高度方向需要缩小至原来的x倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,11 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -92,22 +89,63 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>20364</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>395780</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>81455</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>169151</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19707</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>388226</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>86382</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -418,26 +456,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:H2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E2" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -445,7 +488,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -455,27 +498,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="BMP 图像" shapeId="1028" r:id="rId4">
+        <oleObject progId="BMP 图像" shapeId="1029" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="BMP 图像" shapeId="1028" r:id="rId4"/>
+        <oleObject progId="BMP 图像" shapeId="1029" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="BMP 图像" shapeId="1032" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="BMP 图像" shapeId="1032" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
